--- a/words_CZ/12.xlsx
+++ b/words_CZ/12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PY_progs\Learn_CZ\words_CZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA6D12D-C586-4462-B088-2BBF4B6964B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDD76FD-39A7-4B4E-99BC-754AE3749C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,320 +25,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="354">
-  <si>
-    <t>lístek</t>
-  </si>
-  <si>
-    <t>ticket, leaflet, list</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="363">
   <si>
     <t>až</t>
   </si>
   <si>
-    <t>balet</t>
-  </si>
-  <si>
-    <t>budova</t>
-  </si>
-  <si>
-    <t>dámský</t>
-  </si>
-  <si>
-    <t>divadelní</t>
-  </si>
-  <si>
-    <t>dnešní</t>
-  </si>
-  <si>
-    <t>dobrodružný</t>
-  </si>
-  <si>
-    <t>dospělý</t>
-  </si>
-  <si>
     <t>festival</t>
   </si>
   <si>
-    <t>filmový</t>
-  </si>
-  <si>
-    <t>halenka</t>
-  </si>
-  <si>
-    <t>horor</t>
-  </si>
-  <si>
-    <t>hra</t>
-  </si>
-  <si>
     <t>jestli</t>
   </si>
   <si>
-    <t>kapela</t>
-  </si>
-  <si>
-    <t>kostým</t>
-  </si>
-  <si>
-    <t>kravata</t>
-  </si>
-  <si>
-    <t>kulturní</t>
-  </si>
-  <si>
-    <t>kvalitní</t>
-  </si>
-  <si>
     <t>letos</t>
   </si>
   <si>
-    <t>muzikál</t>
-  </si>
-  <si>
-    <t>nadšený</t>
-  </si>
-  <si>
-    <t>národní</t>
-  </si>
-  <si>
-    <t>nuda</t>
-  </si>
-  <si>
     <t>nudit se</t>
   </si>
   <si>
-    <t>oblek</t>
-  </si>
-  <si>
     <t>opera</t>
   </si>
   <si>
-    <t>pánský</t>
-  </si>
-  <si>
-    <t>povídka</t>
-  </si>
-  <si>
     <t>předem</t>
   </si>
   <si>
-    <t>představení</t>
-  </si>
-  <si>
     <t>příště</t>
   </si>
   <si>
-    <t>romantický</t>
-  </si>
-  <si>
-    <t>sedadlo</t>
-  </si>
-  <si>
-    <t>seriál</t>
-  </si>
-  <si>
-    <t>skupina</t>
-  </si>
-  <si>
-    <t>sraz</t>
-  </si>
-  <si>
-    <t>svět</t>
-  </si>
-  <si>
-    <t>svetr</t>
-  </si>
-  <si>
-    <t>šála</t>
-  </si>
-  <si>
     <t>thriller</t>
   </si>
   <si>
     <t>včas</t>
   </si>
   <si>
-    <t>vstupenka</t>
-  </si>
-  <si>
-    <t>známý</t>
-  </si>
-  <si>
-    <t>аж, доки, поки не, коли</t>
-  </si>
-  <si>
-    <t>аж, пока, когда</t>
-  </si>
-  <si>
-    <t>until, as far as, when</t>
-  </si>
-  <si>
     <t>балет</t>
   </si>
   <si>
     <t>ballet</t>
   </si>
   <si>
-    <t>будівля, споруда</t>
-  </si>
-  <si>
-    <t>здание, сооружение</t>
-  </si>
-  <si>
     <t>building</t>
   </si>
   <si>
-    <t>čepice</t>
-  </si>
-  <si>
     <t>шапка, кепка</t>
   </si>
   <si>
-    <t>cap, hat</t>
-  </si>
-  <si>
     <t>жіночий, дамський</t>
   </si>
   <si>
-    <t>женский, дамский</t>
-  </si>
-  <si>
-    <t>women's, ladies'</t>
-  </si>
-  <si>
-    <t>dámská</t>
-  </si>
-  <si>
     <t>жіноча, дамська</t>
   </si>
   <si>
-    <t>женская, дамская</t>
-  </si>
-  <si>
-    <t>dámské</t>
-  </si>
-  <si>
     <t>жіноче, дамське</t>
   </si>
   <si>
-    <t>женское, дамское</t>
-  </si>
-  <si>
     <t>dávat</t>
   </si>
   <si>
-    <t>давати, надавати (недок.)</t>
-  </si>
-  <si>
-    <t>давать, предоставлять (недок.)</t>
-  </si>
-  <si>
-    <t>to give, to put (impf.)</t>
-  </si>
-  <si>
     <t>díky</t>
   </si>
   <si>
-    <t>завдяки, дякуючи</t>
-  </si>
-  <si>
-    <t>благодаря</t>
-  </si>
-  <si>
-    <t>thanks to, due to</t>
-  </si>
-  <si>
-    <t>театральний</t>
-  </si>
-  <si>
-    <t>театральный</t>
-  </si>
-  <si>
-    <t>theatre (adj.), theatrical</t>
-  </si>
-  <si>
-    <t>divadelní (ж/с)</t>
-  </si>
-  <si>
     <t>театральна, театральне</t>
   </si>
   <si>
     <t>театральная, театральное</t>
   </si>
   <si>
-    <t>сьогоднішній, нинішній</t>
-  </si>
-  <si>
-    <t>сегодняшний, нынешний</t>
-  </si>
-  <si>
-    <t>today's, current</t>
-  </si>
-  <si>
-    <t>пригодницький, авантюрний</t>
-  </si>
-  <si>
-    <t>приключенческий, авантюрный</t>
-  </si>
-  <si>
-    <t>adventurous</t>
-  </si>
-  <si>
-    <t>dobrodružná</t>
-  </si>
-  <si>
-    <t>пригодницька, авантюрна</t>
-  </si>
-  <si>
-    <t>приключенческая, авантюрная</t>
-  </si>
-  <si>
-    <t>dobrodružné</t>
-  </si>
-  <si>
-    <t>пригодницьке, авантюрне</t>
-  </si>
-  <si>
-    <t>приключенческое, авантюрное</t>
-  </si>
-  <si>
-    <t>дорослий</t>
-  </si>
-  <si>
-    <t>взрослый</t>
-  </si>
-  <si>
     <t>adult (male)</t>
   </si>
   <si>
-    <t>dospělá</t>
-  </si>
-  <si>
-    <t>доросла</t>
-  </si>
-  <si>
-    <t>взрослая</t>
-  </si>
-  <si>
     <t>adult (female)</t>
   </si>
   <si>
-    <t>dospělé</t>
-  </si>
-  <si>
-    <t>доросле</t>
-  </si>
-  <si>
-    <t>взрослое</t>
-  </si>
-  <si>
-    <t>adult (neut.)</t>
-  </si>
-  <si>
-    <t>džíny</t>
-  </si>
-  <si>
     <t>джинси</t>
   </si>
   <si>
@@ -348,36 +105,6 @@
     <t>jeans</t>
   </si>
   <si>
-    <t>фестиваль, фест</t>
-  </si>
-  <si>
-    <t>фільмовий, кінематографічний</t>
-  </si>
-  <si>
-    <t>фильмовый, кинематографический</t>
-  </si>
-  <si>
-    <t>film (adj.), movie (adj.)</t>
-  </si>
-  <si>
-    <t>filmová</t>
-  </si>
-  <si>
-    <t>фільмова, кінематографічна</t>
-  </si>
-  <si>
-    <t>фильмовая, кинематографическая</t>
-  </si>
-  <si>
-    <t>filmové</t>
-  </si>
-  <si>
-    <t>фільмове, кінематографічне</t>
-  </si>
-  <si>
-    <t>фильмовое, кинематографическое</t>
-  </si>
-  <si>
     <t>блузка, кофтинка</t>
   </si>
   <si>
@@ -387,24 +114,6 @@
     <t>blouse</t>
   </si>
   <si>
-    <t>горор, жах</t>
-  </si>
-  <si>
-    <t>хоррор, ужас</t>
-  </si>
-  <si>
-    <t>horror</t>
-  </si>
-  <si>
-    <t>гра, п'єса</t>
-  </si>
-  <si>
-    <t>игра, пьеса</t>
-  </si>
-  <si>
-    <t>game, play (theatre)</t>
-  </si>
-  <si>
     <t>якщо, чи</t>
   </si>
   <si>
@@ -414,18 +123,6 @@
     <t>if, whether</t>
   </si>
   <si>
-    <t>гурт, капела, оркестр</t>
-  </si>
-  <si>
-    <t>группа, капелла, оркестр</t>
-  </si>
-  <si>
-    <t>band, chapel, orchestra</t>
-  </si>
-  <si>
-    <t>komedie</t>
-  </si>
-  <si>
     <t>комедія</t>
   </si>
   <si>
@@ -438,15 +135,6 @@
     <t>konat se</t>
   </si>
   <si>
-    <t>відбуватися, проходити (недок.)</t>
-  </si>
-  <si>
-    <t>проходить, совершаться (недок.)</t>
-  </si>
-  <si>
-    <t>to take place, to happen (impf.)</t>
-  </si>
-  <si>
     <t>костюм</t>
   </si>
   <si>
@@ -456,72 +144,24 @@
     <t>koupit si</t>
   </si>
   <si>
-    <t>купити собі, придбати (док.)</t>
-  </si>
-  <si>
-    <t>купить себе, приобрести (док.)</t>
-  </si>
-  <si>
-    <t>to buy (for oneself) (pf.)</t>
-  </si>
-  <si>
     <t>краватка</t>
   </si>
   <si>
     <t>галстук</t>
   </si>
   <si>
-    <t>tie, necktie</t>
-  </si>
-  <si>
     <t>kromě</t>
   </si>
   <si>
-    <t>окрім, крім, за винятком</t>
-  </si>
-  <si>
-    <t>кроме, за исключением</t>
-  </si>
-  <si>
-    <t>except for, besides</t>
-  </si>
-  <si>
-    <t>культурний</t>
-  </si>
-  <si>
-    <t>культурный</t>
-  </si>
-  <si>
     <t>cultural</t>
   </si>
   <si>
-    <t>kulturní (ж/с)</t>
-  </si>
-  <si>
     <t>культурна, культурне</t>
   </si>
   <si>
     <t>культурная, культурное</t>
   </si>
   <si>
-    <t>якісний, добротний</t>
-  </si>
-  <si>
-    <t>качественный, добротный</t>
-  </si>
-  <si>
-    <t>high-quality</t>
-  </si>
-  <si>
-    <t>kvalitní (ж/с)</t>
-  </si>
-  <si>
-    <t>якісна, добротна</t>
-  </si>
-  <si>
-    <t>качественная, добротная</t>
-  </si>
-  <si>
     <t>цього року</t>
   </si>
   <si>
@@ -531,201 +171,39 @@
     <t>this year</t>
   </si>
   <si>
-    <t>квиток, листок</t>
-  </si>
-  <si>
-    <t>билет, листок</t>
-  </si>
-  <si>
-    <t>loni</t>
-  </si>
-  <si>
-    <t>торік, минулого року</t>
-  </si>
-  <si>
     <t>в прошлом году</t>
   </si>
   <si>
     <t>last year</t>
   </si>
   <si>
-    <t>vloni</t>
-  </si>
-  <si>
     <t>мюзикл</t>
   </si>
   <si>
-    <t>musical</t>
-  </si>
-  <si>
-    <t>захоплений, натхненний</t>
-  </si>
-  <si>
-    <t>восторженный, вдохновленный</t>
-  </si>
-  <si>
-    <t>enthusiastic (male)</t>
-  </si>
-  <si>
-    <t>nadšená</t>
-  </si>
-  <si>
-    <t>захоплена, натхненна</t>
-  </si>
-  <si>
-    <t>восторженная, вдохновленная</t>
-  </si>
-  <si>
-    <t>enthusiastic (female)</t>
-  </si>
-  <si>
-    <t>nadšené</t>
-  </si>
-  <si>
-    <t>захоплене, натхненне</t>
-  </si>
-  <si>
-    <t>восторженное, вдохновленное</t>
-  </si>
-  <si>
-    <t>enthusiastic (neut.)</t>
-  </si>
-  <si>
-    <t>національний, народний</t>
-  </si>
-  <si>
-    <t>национальный, народный</t>
-  </si>
-  <si>
     <t>national</t>
   </si>
   <si>
-    <t>národní (ж/с)</t>
-  </si>
-  <si>
-    <t>національна, народна</t>
-  </si>
-  <si>
-    <t>национальная, народная</t>
-  </si>
-  <si>
-    <t>нудьга, скука</t>
-  </si>
-  <si>
-    <t>скука, тоска</t>
-  </si>
-  <si>
     <t>boredom</t>
   </si>
   <si>
-    <t>нудьгувати, скучати</t>
-  </si>
-  <si>
-    <t>скучать, тосковать</t>
-  </si>
-  <si>
-    <t>to be bored (impf.)</t>
-  </si>
-  <si>
     <t>suit (men's)</t>
   </si>
   <si>
     <t>опера</t>
   </si>
   <si>
-    <t>чоловічий, панський</t>
-  </si>
-  <si>
-    <t>мужской, господский</t>
-  </si>
-  <si>
-    <t>men's, male (adj.)</t>
-  </si>
-  <si>
-    <t>pánská</t>
-  </si>
-  <si>
-    <t>чоловіча, панська</t>
-  </si>
-  <si>
-    <t>мужская, господская</t>
-  </si>
-  <si>
-    <t>pánské</t>
-  </si>
-  <si>
-    <t>чоловіче, панське</t>
-  </si>
-  <si>
-    <t>мужское, господское</t>
-  </si>
-  <si>
-    <t>píseň</t>
-  </si>
-  <si>
-    <t>пісня, співанка</t>
-  </si>
-  <si>
     <t>песня</t>
   </si>
   <si>
-    <t>song</t>
-  </si>
-  <si>
-    <t>písnička</t>
-  </si>
-  <si>
-    <t>пісенька</t>
-  </si>
-  <si>
-    <t>песенка</t>
-  </si>
-  <si>
-    <t>song (diminutive)</t>
-  </si>
-  <si>
     <t>plakat</t>
   </si>
   <si>
-    <t>плакати (недок.)</t>
-  </si>
-  <si>
-    <t>плакать (недок.)</t>
-  </si>
-  <si>
-    <t>to cry, to weep (impf.)</t>
-  </si>
-  <si>
-    <t>оповідання, розповідь</t>
-  </si>
-  <si>
-    <t>рассказ, повесть</t>
-  </si>
-  <si>
-    <t>short story, tale</t>
-  </si>
-  <si>
     <t>заздалегідь, наперед</t>
   </si>
   <si>
-    <t>заранее, наперед</t>
-  </si>
-  <si>
-    <t>in advance, beforehand</t>
-  </si>
-  <si>
-    <t>вистава, показ, представлення</t>
-  </si>
-  <si>
-    <t>представление, показ</t>
-  </si>
-  <si>
     <t>performance, show</t>
   </si>
   <si>
-    <t>překladatel</t>
-  </si>
-  <si>
     <t>перекладач</t>
   </si>
   <si>
@@ -735,9 +213,6 @@
     <t>translator (male)</t>
   </si>
   <si>
-    <t>překladatelka</t>
-  </si>
-  <si>
     <t>перекладачка</t>
   </si>
   <si>
@@ -756,66 +231,36 @@
     <t>next time</t>
   </si>
   <si>
-    <t>režisér</t>
-  </si>
-  <si>
     <t>режисер</t>
   </si>
   <si>
-    <t>режиссер</t>
-  </si>
-  <si>
-    <t>director (film/theatre) (male)</t>
-  </si>
-  <si>
-    <t>režisérka</t>
-  </si>
-  <si>
     <t>режисерка</t>
   </si>
   <si>
-    <t>director (film/theatre) (female)</t>
-  </si>
-  <si>
     <t>романтичний</t>
   </si>
   <si>
     <t>романтический</t>
   </si>
   <si>
-    <t>romantic</t>
-  </si>
-  <si>
-    <t>romantická</t>
-  </si>
-  <si>
     <t>романтична</t>
   </si>
   <si>
     <t>романтическая</t>
   </si>
   <si>
-    <t>romantické</t>
-  </si>
-  <si>
     <t>романтичне</t>
   </si>
   <si>
     <t>романтическое</t>
   </si>
   <si>
-    <t>rukavice</t>
-  </si>
-  <si>
     <t>рукавиця, рукавичка</t>
   </si>
   <si>
     <t>перчатка, рукавица</t>
   </si>
   <si>
-    <t>glove, mitten</t>
-  </si>
-  <si>
     <t>сидіння, місце</t>
   </si>
   <si>
@@ -825,114 +270,33 @@
     <t>seat</t>
   </si>
   <si>
-    <t>sehnat</t>
-  </si>
-  <si>
-    <t>роздобути, дістати, знайти (док.)</t>
-  </si>
-  <si>
-    <t>раздобыть, достать, найти (док.)</t>
-  </si>
-  <si>
-    <t>to get hold of, to acquire (pf.)</t>
-  </si>
-  <si>
     <t>seženu</t>
   </si>
   <si>
-    <t>я роздобуду</t>
-  </si>
-  <si>
-    <t>я раздобуду</t>
-  </si>
-  <si>
-    <t>I will get hold of</t>
-  </si>
-  <si>
-    <t>sehnal</t>
-  </si>
-  <si>
-    <t>він роздобув</t>
-  </si>
-  <si>
-    <t>он раздобыл</t>
-  </si>
-  <si>
-    <t>he got hold of</t>
-  </si>
-  <si>
-    <t>серіал, багатосерійний фільм</t>
-  </si>
-  <si>
     <t>сериал</t>
   </si>
   <si>
-    <t>series, TV show</t>
-  </si>
-  <si>
-    <t>група, колектив</t>
-  </si>
-  <si>
-    <t>группа, коллектив</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>spisovatel</t>
-  </si>
-  <si>
     <t>письменник</t>
   </si>
   <si>
     <t>писатель</t>
   </si>
   <si>
-    <t>writer, author (male)</t>
-  </si>
-  <si>
-    <t>spisovatelka</t>
-  </si>
-  <si>
     <t>письменниця</t>
   </si>
   <si>
     <t>писательница</t>
   </si>
   <si>
-    <t>writer, author (female)</t>
-  </si>
-  <si>
-    <t>зустріч, збір, зіткнення</t>
-  </si>
-  <si>
-    <t>встреча, сбор, столкновение</t>
-  </si>
-  <si>
-    <t>meeting, rally, collision</t>
-  </si>
-  <si>
     <t>stihnout</t>
   </si>
   <si>
-    <t>встигнути (док.)</t>
-  </si>
-  <si>
-    <t>успеть (док.)</t>
-  </si>
-  <si>
-    <t>to manage (to do), to catch (pf.)</t>
-  </si>
-  <si>
     <t>світ</t>
   </si>
   <si>
     <t>мир, свет</t>
   </si>
   <si>
-    <t>world, light</t>
-  </si>
-  <si>
     <t>светр</t>
   </si>
   <si>
@@ -948,39 +312,12 @@
     <t>scarf, shawl</t>
   </si>
   <si>
-    <t>šaty</t>
-  </si>
-  <si>
-    <t>сукня, одяг</t>
-  </si>
-  <si>
-    <t>платье, одежда</t>
-  </si>
-  <si>
-    <t>dress, clothes (pl.)</t>
-  </si>
-  <si>
     <t>трилер</t>
   </si>
   <si>
     <t>триллер</t>
   </si>
   <si>
-    <t>titulky</t>
-  </si>
-  <si>
-    <t>субтитри, титри</t>
-  </si>
-  <si>
-    <t>субтитры, титры</t>
-  </si>
-  <si>
-    <t>subtitles, captions</t>
-  </si>
-  <si>
-    <t>tragédie</t>
-  </si>
-  <si>
     <t>трагедія</t>
   </si>
   <si>
@@ -993,100 +330,790 @@
     <t>trvat</t>
   </si>
   <si>
-    <t>тривати, продовжуватися (недок.)</t>
-  </si>
-  <si>
-    <t>длиться, продолжаться (недок.)</t>
-  </si>
-  <si>
-    <t>to last, to take (time) (impf.)</t>
-  </si>
-  <si>
     <t>вчасно</t>
   </si>
   <si>
     <t>вовремя</t>
   </si>
   <si>
-    <t>on time, in time</t>
-  </si>
-  <si>
     <t>вхідний квиток</t>
   </si>
   <si>
     <t>входной билет</t>
   </si>
   <si>
-    <t>entrance ticket</t>
-  </si>
-  <si>
-    <t>vstupné</t>
-  </si>
-  <si>
-    <t>вхідна плата</t>
-  </si>
-  <si>
-    <t>входная плата</t>
-  </si>
-  <si>
     <t>admission fee</t>
   </si>
   <si>
-    <t>vzpomínat si na</t>
-  </si>
-  <si>
-    <t>згадувати, пригадувати (недок.)</t>
-  </si>
-  <si>
-    <t>вспоминать, припоминать (недок.)</t>
-  </si>
-  <si>
-    <t>to remember, to recall (impf.)</t>
-  </si>
-  <si>
-    <t>vzpomenout si na</t>
-  </si>
-  <si>
-    <t>згадати, пригадати (док.)</t>
-  </si>
-  <si>
-    <t>вспомнить, припомнить (док.)</t>
-  </si>
-  <si>
-    <t>to remember, to recall (pf.)</t>
-  </si>
-  <si>
-    <t>відомий, знайомий</t>
-  </si>
-  <si>
-    <t>известный, знакомый</t>
-  </si>
-  <si>
-    <t>famous, well-known, familiar (male)</t>
-  </si>
-  <si>
-    <t>známá</t>
-  </si>
-  <si>
-    <t>відома, знайома</t>
-  </si>
-  <si>
-    <t>известная, знакомая</t>
-  </si>
-  <si>
-    <t>famous, well-known, familiar (female)</t>
-  </si>
-  <si>
-    <t>známé</t>
-  </si>
-  <si>
-    <t>відоме, знайоме</t>
-  </si>
-  <si>
-    <t>известное, знакомое</t>
-  </si>
-  <si>
-    <t>famous, well-known, familiar (neut.)</t>
+    <t>аж, до, поки не, щойно (коли)</t>
+  </si>
+  <si>
+    <t>аж, до, пока не, как только</t>
+  </si>
+  <si>
+    <t>until, up to, when, as soon as, as far as</t>
+  </si>
+  <si>
+    <t>(M) balet</t>
+  </si>
+  <si>
+    <t>(Ž) budova</t>
+  </si>
+  <si>
+    <t>будівля, будинок</t>
+  </si>
+  <si>
+    <t>здание, строение</t>
+  </si>
+  <si>
+    <t>(Ž) čepice</t>
+  </si>
+  <si>
+    <t>cap, hat (winter)</t>
+  </si>
+  <si>
+    <t>(M) dámský</t>
+  </si>
+  <si>
+    <t>дамский, женский</t>
+  </si>
+  <si>
+    <t>ladies', women's (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) dámská</t>
+  </si>
+  <si>
+    <t>дамская, женская</t>
+  </si>
+  <si>
+    <t>(S) dámské</t>
+  </si>
+  <si>
+    <t>дамское, женское</t>
+  </si>
+  <si>
+    <t>1. давати 2. показувати (фільм)</t>
+  </si>
+  <si>
+    <t>1. давать 2. показывать (фильм)</t>
+  </si>
+  <si>
+    <t>1. to give 2. to show (a film)</t>
+  </si>
+  <si>
+    <t>1. дякую 2. завдяки</t>
+  </si>
+  <si>
+    <t>1. спасибо 2. благодаря</t>
+  </si>
+  <si>
+    <t>1. thanks 2. thanks to</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) divadelní</t>
+  </si>
+  <si>
+    <t>театральний, -а, -е</t>
+  </si>
+  <si>
+    <t>театральный, -ая, -ое</t>
+  </si>
+  <si>
+    <t>theatrical, theatre (adj)</t>
+  </si>
+  <si>
+    <t>(Ž/S) divadelní</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) dnešní</t>
+  </si>
+  <si>
+    <t>сьогоднішній, -я, -є</t>
+  </si>
+  <si>
+    <t>сегодняшний, -яя, -ее</t>
+  </si>
+  <si>
+    <t>today's</t>
+  </si>
+  <si>
+    <t>(M) dobrodružný</t>
+  </si>
+  <si>
+    <t>пригодницький</t>
+  </si>
+  <si>
+    <t>приключенческий</t>
+  </si>
+  <si>
+    <t>adventurous (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) dobrodružná</t>
+  </si>
+  <si>
+    <t>пригодницька</t>
+  </si>
+  <si>
+    <t>приключенческая</t>
+  </si>
+  <si>
+    <t>(S) dobrodružné</t>
+  </si>
+  <si>
+    <t>пригодницьке</t>
+  </si>
+  <si>
+    <t>приключенческое</t>
+  </si>
+  <si>
+    <t>(M) dospělý</t>
+  </si>
+  <si>
+    <t>дорослий (людина)</t>
+  </si>
+  <si>
+    <t>взрослый (человек)</t>
+  </si>
+  <si>
+    <t>(Ž) dospělá</t>
+  </si>
+  <si>
+    <t>доросла (людина)</t>
+  </si>
+  <si>
+    <t>взрослая (человек)</t>
+  </si>
+  <si>
+    <t>(S) dospělé</t>
+  </si>
+  <si>
+    <t>доросле (створіння)</t>
+  </si>
+  <si>
+    <t>взрослое (создание)</t>
+  </si>
+  <si>
+    <t>adult (neuter)</t>
+  </si>
+  <si>
+    <t>(Pl) džíny</t>
+  </si>
+  <si>
+    <t>(M) festival</t>
+  </si>
+  <si>
+    <t>фестиваль</t>
+  </si>
+  <si>
+    <t>(M) filmový</t>
+  </si>
+  <si>
+    <t>фільмовий, (для) кіно</t>
+  </si>
+  <si>
+    <t>(для) кино, кинематографический</t>
+  </si>
+  <si>
+    <t>film (adj), movie (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) filmová</t>
+  </si>
+  <si>
+    <t>фільмова, (для) кіно</t>
+  </si>
+  <si>
+    <t>(для) кино, кинематографическая</t>
+  </si>
+  <si>
+    <t>(S) filmové</t>
+  </si>
+  <si>
+    <t>фільмове, (для) кіно</t>
+  </si>
+  <si>
+    <t>(для) кино, кинематографическое</t>
+  </si>
+  <si>
+    <t>(Ž) halenka</t>
+  </si>
+  <si>
+    <t>(M) horor</t>
+  </si>
+  <si>
+    <t>фільм жахів, хоррор</t>
+  </si>
+  <si>
+    <t>фильм ужасов, хоррор</t>
+  </si>
+  <si>
+    <t>horror (movie)</t>
+  </si>
+  <si>
+    <t>(Ž) hra</t>
+  </si>
+  <si>
+    <t>1. гра 2. п'єса (в театрі)</t>
+  </si>
+  <si>
+    <t>1. игра 2. пьеса (в театре)</t>
+  </si>
+  <si>
+    <t>1. game 2. play (theatrical)</t>
+  </si>
+  <si>
+    <t>(Ž) kapela</t>
+  </si>
+  <si>
+    <t>гурт, капела</t>
+  </si>
+  <si>
+    <t>группа (музыкальная)</t>
+  </si>
+  <si>
+    <t>(music) band</t>
+  </si>
+  <si>
+    <t>(Ž) komedie</t>
+  </si>
+  <si>
+    <t>відбуватися, проходити</t>
+  </si>
+  <si>
+    <t>состояться, проходить</t>
+  </si>
+  <si>
+    <t>to take place, to be held</t>
+  </si>
+  <si>
+    <t>(M) kostým</t>
+  </si>
+  <si>
+    <t>купити собі</t>
+  </si>
+  <si>
+    <t>купить себе</t>
+  </si>
+  <si>
+    <t>to buy (for oneself)</t>
+  </si>
+  <si>
+    <t>(Ž) kravata</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>крім, окрім</t>
+  </si>
+  <si>
+    <t>кроме</t>
+  </si>
+  <si>
+    <t>except (for), besides</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) kulturní</t>
+  </si>
+  <si>
+    <t>культурний, -а, -е</t>
+  </si>
+  <si>
+    <t>культурный, -ая, -ое</t>
+  </si>
+  <si>
+    <t>(Ž/S) kulturní</t>
+  </si>
+  <si>
+    <t>cultural (female/neuter)</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) kvalitní</t>
+  </si>
+  <si>
+    <t>якісний, -а, -е</t>
+  </si>
+  <si>
+    <t>качественный, -ая, -ое</t>
+  </si>
+  <si>
+    <t>high-quality, quality (adj)</t>
+  </si>
+  <si>
+    <t>(Ž/S) kvalitní</t>
+  </si>
+  <si>
+    <t>якісна, якісне</t>
+  </si>
+  <si>
+    <t>качественная, качественное</t>
+  </si>
+  <si>
+    <t>high-quality (female/neuter)</t>
+  </si>
+  <si>
+    <t>(M) lístek</t>
+  </si>
+  <si>
+    <t>квиток; листок</t>
+  </si>
+  <si>
+    <t>билет; листок</t>
+  </si>
+  <si>
+    <t>ticket; leaflet</t>
+  </si>
+  <si>
+    <t>loni / vloni</t>
+  </si>
+  <si>
+    <t>минулого року, торік</t>
+  </si>
+  <si>
+    <t>(M) muzikál</t>
+  </si>
+  <si>
+    <t>musical (noun)</t>
+  </si>
+  <si>
+    <t>(M) nadšený</t>
+  </si>
+  <si>
+    <t>захоплений, у захваті</t>
+  </si>
+  <si>
+    <t>восторженный, в восторге</t>
+  </si>
+  <si>
+    <t>enthusiastic, excited (male)</t>
+  </si>
+  <si>
+    <t>(Ž) nadšená</t>
+  </si>
+  <si>
+    <t>захоплена, у захваті</t>
+  </si>
+  <si>
+    <t>восторженная, в восторге</t>
+  </si>
+  <si>
+    <t>enthusiastic, excited (female)</t>
+  </si>
+  <si>
+    <t>(S) nadšené</t>
+  </si>
+  <si>
+    <t>захоплене, у захваті</t>
+  </si>
+  <si>
+    <t>восторженное, в восторге</t>
+  </si>
+  <si>
+    <t>enthusiastic, excited (neuter)</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) národní</t>
+  </si>
+  <si>
+    <t>народний, національний</t>
+  </si>
+  <si>
+    <t>народный, национальный</t>
+  </si>
+  <si>
+    <t>(Ž/S) národní</t>
+  </si>
+  <si>
+    <t>народна/національна, народне/національне</t>
+  </si>
+  <si>
+    <t>народная/национальная, народное/национальное</t>
+  </si>
+  <si>
+    <t>national (female/neuter)</t>
+  </si>
+  <si>
+    <t>(Ž) nuda</t>
+  </si>
+  <si>
+    <t>нудьга, нудота</t>
+  </si>
+  <si>
+    <t>скука, нудота</t>
+  </si>
+  <si>
+    <t>нудьгувати, сумувати</t>
+  </si>
+  <si>
+    <t>скучать</t>
+  </si>
+  <si>
+    <t>to be bored</t>
+  </si>
+  <si>
+    <t>(M) oblek</t>
+  </si>
+  <si>
+    <t>костюм (чоловічий)</t>
+  </si>
+  <si>
+    <t>костюм (мужской)</t>
+  </si>
+  <si>
+    <t>(Ž) opera</t>
+  </si>
+  <si>
+    <t>(M) pánský</t>
+  </si>
+  <si>
+    <t>чоловічий</t>
+  </si>
+  <si>
+    <t>мужской</t>
+  </si>
+  <si>
+    <t>men's, gentlemen's</t>
+  </si>
+  <si>
+    <t>(Ž) pánská</t>
+  </si>
+  <si>
+    <t>чоловіча</t>
+  </si>
+  <si>
+    <t>мужская</t>
+  </si>
+  <si>
+    <t>(S) pánské</t>
+  </si>
+  <si>
+    <t>чоловіче</t>
+  </si>
+  <si>
+    <t>мужское</t>
+  </si>
+  <si>
+    <t>(Ž) píseň</t>
+  </si>
+  <si>
+    <t>пісня</t>
+  </si>
+  <si>
+    <t>song (formal)</t>
+  </si>
+  <si>
+    <t>(Ž) písnička</t>
+  </si>
+  <si>
+    <t>пісня, пісенька</t>
+  </si>
+  <si>
+    <t>песня, песенка</t>
+  </si>
+  <si>
+    <t>song (colloquial)</t>
+  </si>
+  <si>
+    <t>плакати</t>
+  </si>
+  <si>
+    <t>плакать</t>
+  </si>
+  <si>
+    <t>to cry</t>
+  </si>
+  <si>
+    <t>(Ž) povídka</t>
+  </si>
+  <si>
+    <t>оповідання</t>
+  </si>
+  <si>
+    <t>рассказ</t>
+  </si>
+  <si>
+    <t>short story</t>
+  </si>
+  <si>
+    <t>заранее, наперёд</t>
+  </si>
+  <si>
+    <t>in advance</t>
+  </si>
+  <si>
+    <t>(S) představení</t>
+  </si>
+  <si>
+    <t>вистава, сеанс</t>
+  </si>
+  <si>
+    <t>представление, сеанс</t>
+  </si>
+  <si>
+    <t>(M) překladatel</t>
+  </si>
+  <si>
+    <t>(Ž) překladatelka</t>
+  </si>
+  <si>
+    <t>(M) režisér</t>
+  </si>
+  <si>
+    <t>режиссёр</t>
+  </si>
+  <si>
+    <t>director (film, theatre) (male)</t>
+  </si>
+  <si>
+    <t>(Ž) režisérka</t>
+  </si>
+  <si>
+    <t>режиссёр (женщина)</t>
+  </si>
+  <si>
+    <t>director (female)</t>
+  </si>
+  <si>
+    <t>(M) romantický</t>
+  </si>
+  <si>
+    <t>romantic (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) romantická</t>
+  </si>
+  <si>
+    <t>(S) romantické</t>
+  </si>
+  <si>
+    <t>(Ž) rukavice</t>
+  </si>
+  <si>
+    <t>glove</t>
+  </si>
+  <si>
+    <t>(S) sedadlo</t>
+  </si>
+  <si>
+    <t>sehnat (pf)</t>
+  </si>
+  <si>
+    <t>дістати, роздобути</t>
+  </si>
+  <si>
+    <t>достать, раздобыть</t>
+  </si>
+  <si>
+    <t>to get, to obtain (perfective)</t>
+  </si>
+  <si>
+    <t>я дістану, дістану</t>
+  </si>
+  <si>
+    <t>я достану, достану</t>
+  </si>
+  <si>
+    <t>I will get, I will obtain</t>
+  </si>
+  <si>
+    <t>(M) sehnal</t>
+  </si>
+  <si>
+    <t>він дістав, дістав</t>
+  </si>
+  <si>
+    <t>он достал, достал</t>
+  </si>
+  <si>
+    <t>he got, he obtained</t>
+  </si>
+  <si>
+    <t>(M) seriál</t>
+  </si>
+  <si>
+    <t>серіал</t>
+  </si>
+  <si>
+    <t>series, TV series</t>
+  </si>
+  <si>
+    <t>(Ž) skupina</t>
+  </si>
+  <si>
+    <t>група, гурт</t>
+  </si>
+  <si>
+    <t>группа</t>
+  </si>
+  <si>
+    <t>group, band</t>
+  </si>
+  <si>
+    <t>(M) spisovatel</t>
+  </si>
+  <si>
+    <t>writer (male)</t>
+  </si>
+  <si>
+    <t>(Ž) spisovatelka</t>
+  </si>
+  <si>
+    <t>writer (female)</t>
+  </si>
+  <si>
+    <t>(M) sraz</t>
+  </si>
+  <si>
+    <t>зустріч, збори</t>
+  </si>
+  <si>
+    <t>встреча, сбор, слёт</t>
+  </si>
+  <si>
+    <t>meeting, get-together</t>
+  </si>
+  <si>
+    <t>встигнути</t>
+  </si>
+  <si>
+    <t>успеть</t>
+  </si>
+  <si>
+    <t>to manage (in time), to catch (a bus)</t>
+  </si>
+  <si>
+    <t>(M) svět</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>(M) svetr</t>
+  </si>
+  <si>
+    <t>(Ž) šála</t>
+  </si>
+  <si>
+    <t>(Pl) šaty</t>
+  </si>
+  <si>
+    <t>сукня, плаття (одн.); одяг (мн.)</t>
+  </si>
+  <si>
+    <t>платье (ед.ч.); одежда (мн.ч.)</t>
+  </si>
+  <si>
+    <t>dress (singular); clothes (plural)</t>
+  </si>
+  <si>
+    <t>(M) thriller</t>
+  </si>
+  <si>
+    <t>(Pl) titulky</t>
+  </si>
+  <si>
+    <t>титри, субтитри</t>
+  </si>
+  <si>
+    <t>титры, субтитры</t>
+  </si>
+  <si>
+    <t>subtitles, credits</t>
+  </si>
+  <si>
+    <t>(Ž) tragédie</t>
+  </si>
+  <si>
+    <t>тривати</t>
+  </si>
+  <si>
+    <t>длиться, продолжаться</t>
+  </si>
+  <si>
+    <t>to last, to take (time)</t>
+  </si>
+  <si>
+    <t>in time</t>
+  </si>
+  <si>
+    <t>vloni / loni</t>
+  </si>
+  <si>
+    <t>(Ž) vstupenka</t>
+  </si>
+  <si>
+    <t>admission ticket</t>
+  </si>
+  <si>
+    <t>(S) vstupné</t>
+  </si>
+  <si>
+    <t>плата за вхід, вартість входу</t>
+  </si>
+  <si>
+    <t>плата за вход, входной билет</t>
+  </si>
+  <si>
+    <t>vzpomínat si na (impf)</t>
+  </si>
+  <si>
+    <t>згадувати про</t>
+  </si>
+  <si>
+    <t>вспоминать о</t>
+  </si>
+  <si>
+    <t>to remember, to recall (imperfective)</t>
+  </si>
+  <si>
+    <t>vzpomenout si na (pf)</t>
+  </si>
+  <si>
+    <t>згадати про</t>
+  </si>
+  <si>
+    <t>вспомнить о</t>
+  </si>
+  <si>
+    <t>to remember, to recall (perfective)</t>
+  </si>
+  <si>
+    <t>(M) známý</t>
+  </si>
+  <si>
+    <t>1. знайомий (людина) 2. відомий (прикм.)</t>
+  </si>
+  <si>
+    <t>1. знакомый (человек) 2. известный (прил.)</t>
+  </si>
+  <si>
+    <t>1. acquaintance (male) 2. well-known (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) známá</t>
+  </si>
+  <si>
+    <t>1. знайома 2. відома</t>
+  </si>
+  <si>
+    <t>1. знакомая 2. известная</t>
+  </si>
+  <si>
+    <t>1. acquaintance (female) 2. well-known (adj)</t>
+  </si>
+  <si>
+    <t>(S) známé</t>
+  </si>
+  <si>
+    <t>1. знайоме 2. відоме</t>
+  </si>
+  <si>
+    <t>1. знакомое 2. известное</t>
+  </si>
+  <si>
+    <t>1. (neuter) 2. well-known (adj)</t>
   </si>
 </sst>
 </file>
@@ -1484,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection sqref="A1:D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,1472 +1526,1456 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>59</v>
+        <v>116</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>59</v>
+        <v>119</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>59</v>
+        <v>121</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>85</v>
+        <v>139</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>85</v>
+        <v>143</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>85</v>
+        <v>146</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>131</v>
+        <v>181</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>155</v>
+        <v>44</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>161</v>
+        <v>203</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>161</v>
+        <v>207</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>176</v>
+        <v>219</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>187</v>
+        <v>231</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>190</v>
+        <v>234</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>199</v>
+        <v>244</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>27</v>
+        <v>245</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>28</v>
+        <v>248</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>204</v>
+        <v>55</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>218</v>
+        <v>264</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>222</v>
+        <v>268</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>223</v>
+        <v>57</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>31</v>
+        <v>272</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>228</v>
+        <v>58</v>
       </c>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>32</v>
+        <v>275</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>229</v>
+        <v>59</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>231</v>
+        <v>60</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>233</v>
+        <v>62</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>235</v>
+        <v>63</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>236</v>
+        <v>7</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>239</v>
+        <v>66</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>242</v>
+        <v>278</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>246</v>
+        <v>281</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>249</v>
+        <v>71</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>34</v>
+        <v>285</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>254</v>
+        <v>74</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>35</v>
+        <v>290</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>265</v>
+        <v>292</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>273</v>
+        <v>299</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>277</v>
+        <v>82</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>281</v>
+        <v>83</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>282</v>
+        <v>84</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>285</v>
+        <v>85</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>287</v>
+        <v>86</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>296</v>
+        <v>88</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>298</v>
+        <v>89</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>39</v>
+        <v>321</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>299</v>
+        <v>90</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>300</v>
+        <v>91</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>301</v>
+        <v>92</v>
       </c>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>302</v>
+        <v>93</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>303</v>
+        <v>93</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>304</v>
+        <v>94</v>
       </c>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>306</v>
+        <v>325</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>308</v>
+        <v>95</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>310</v>
+        <v>96</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>314</v>
+        <v>97</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>316</v>
+        <v>98</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>317</v>
+        <v>100</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>320</v>
+        <v>334</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>321</v>
+        <v>9</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>322</v>
+        <v>101</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>324</v>
+        <v>102</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>336</v>
       </c>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>43</v>
+        <v>337</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>325</v>
+        <v>214</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>326</v>
+        <v>48</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>327</v>
+        <v>49</v>
       </c>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>174</v>
+        <v>338</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>171</v>
+        <v>341</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>172</v>
+        <v>342</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>330</v>
+        <v>345</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>334</v>
+        <v>349</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>45</v>
+        <v>359</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>349</v>
-      </c>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="7"/>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>353</v>
-      </c>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="7"/>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
